--- a/data/trans_camb/IP1004-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1004-Edad-trans_camb.xlsx
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-0,03</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 0,7</t>
+          <t>-1,19; 1,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,07; -0,21</t>
+          <t>-1,9; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 0,0</t>
+          <t>0,0; 1,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 0,0</t>
+          <t>0,0; 1,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,13</t>
+          <t>-0,45; 0,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,35; -0,22</t>
+          <t>-0,67; 0,5</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-53,82%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -843,22 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-73,29%</t>
+          <t>58,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-10,29%</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>-0,61</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,58</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,54</t>
+          <t>-1,4; 0,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 0,0</t>
+          <t>-2,07; -0,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,71</t>
+          <t>-1,85; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,85</t>
+          <t>-1,62; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 0,98</t>
+          <t>-1,14; 0,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,5</t>
+          <t>-1,35; -0,22</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>-53,82%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -999,22 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>58,07%</t>
+          <t>-73,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-10,29%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1004-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1004-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-0,52</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>0,03</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,61</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,58</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,54</t>
+          <t>-1,11; 0,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 0,0</t>
+          <t>-1,7; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,85</t>
+          <t>0,0; 2,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 0,98</t>
+          <t>-0,63; 0,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,5</t>
+          <t>-0,46; 0,71</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>-46,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -843,22 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>58,07%</t>
+          <t>-43,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,29%</t>
+          <t>11,3%</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-0,27</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 0,7</t>
+          <t>0,0; 2,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,07; -0,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 0,0</t>
+          <t>-2,25; 1,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 0,0</t>
+          <t>-3,17; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,13</t>
+          <t>-0,82; 1,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,35; -0,22</t>
+          <t>-1,36; 0,0</t>
         </is>
       </c>
     </row>
@@ -989,27 +989,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-53,82%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-11,04%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-73,29%</t>
+          <t>83,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,65</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,36</t>
+          <t>-1,92; 1,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; -0,17</t>
+          <t>-2,53; -0,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 0,33</t>
+          <t>-1,89; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 0,38</t>
+          <t>-1,75; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 0,24</t>
+          <t>-1,22; 0,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 0,0</t>
+          <t>-1,63; -0,17</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-29,4%</t>
+          <t>-48,65%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1155,22 +1155,22 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-46,2%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-7,07%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-34,53%</t>
+          <t>-62,46%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-71,79%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1203,23 +1203,187 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-87,83; 178,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 68,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 0,37</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; -0,18</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,51; 0,24</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,41; 0,39</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,46; 0,21</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; -0,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-29,4%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-46,2%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-7,07%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-34,53%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-71,79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-90,4; 175,12</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 60,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP1004-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1004-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,59</t>
+          <t>-1,11; 0,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 0,0</t>
+          <t>-1,82; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -810,17 +810,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,23</t>
+          <t>0,0; 2,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 0,34</t>
+          <t>-0,52; 0,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,71</t>
+          <t>-0,42; 0,62</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,23</t>
+          <t>0,0; 2,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,02</t>
+          <t>-1,76; 1,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 0,0</t>
+          <t>-3,47; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,0</t>
+          <t>-0,64; 1,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 0,0</t>
+          <t>-1,37; 0,0</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,11</t>
+          <t>-1,89; 0,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,53; -0,29</t>
+          <t>-2,52; -0,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 0,0</t>
+          <t>-1,61; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 0,0</t>
+          <t>-1,51; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 0,43</t>
+          <t>-1,15; 0,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,63; -0,17</t>
+          <t>-1,64; -0,17</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,37</t>
+          <t>-0,65; 0,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,0; -0,18</t>
+          <t>-0,99; -0,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 0,24</t>
+          <t>-0,42; 0,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 0,39</t>
+          <t>-0,42; 0,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,21</t>
+          <t>-0,46; 0,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,59; -0,0</t>
+          <t>-0,57; -0,01</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-90,4; 175,12</t>
+          <t>-93,74; 124,38</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 60,47</t>
+          <t>-100,0; 49,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1004-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1004-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-0,24</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>-0,52</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 0,0</t>
+          <t>0,0; 2,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 0,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,27</t>
+          <t>-1,86; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,35</t>
+          <t>-0,54; 0,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 0,62</t>
+          <t>-0,46; 0,66</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-46,51%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,49</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,58</t>
+          <t>-1,75; 1,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,21; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,03</t>
+          <t>0,0; 2,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,02</t>
+          <t>-0,58; 1,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 0,0</t>
+          <t>-1,1; 0,0</t>
         </is>
       </c>
     </row>
@@ -989,22 +989,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-11,04%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-11,04%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-0,46</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>-0,94</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 0,96</t>
+          <t>-1,99; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; -0,29</t>
+          <t>-1,76; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,0</t>
+          <t>-1,72; 1,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,0</t>
+          <t>-2,73; -0,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,49</t>
+          <t>-1,2; 0,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; -0,17</t>
+          <t>-1,62; -0,17</t>
         </is>
       </c>
     </row>
@@ -1145,17 +1145,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>-48,65%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1225,22 +1225,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>-0,13</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>-0,45</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,39</t>
+          <t>-0,42; 0,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,99; -0,17</t>
+          <t>-0,42; 0,38</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 0,24</t>
+          <t>-0,67; 0,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 0,33</t>
+          <t>-1,0; -0,17</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,19</t>
+          <t>-0,43; 0,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,57; -0,01</t>
+          <t>-0,54; 0,0</t>
         </is>
       </c>
     </row>
@@ -1301,22 +1301,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-46,2%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-7,07%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>-29,4%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-46,2%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-7,07%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-93,74; 124,38</t>
+          <t>-87,83; 178,42</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 49,91</t>
+          <t>-100,0; 68,45</t>
         </is>
       </c>
     </row>
